--- a/docs/画面設計書/【勤怠管理システム_画面設計書】共通ヘッダー.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】共通ヘッダー.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -171,7 +171,7 @@
     <t>備考</t>
   </si>
   <si>
-    <t>Logout</t>
+    <t>logout</t>
   </si>
   <si>
     <t>ログアウト</t>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>メソッド</t>
-  </si>
-  <si>
-    <t>logout</t>
   </si>
   <si>
     <t>引数</t>
@@ -6857,7 +6854,7 @@
       <c r="D6" s="56"/>
       <c r="E6" s="63"/>
       <c r="F6" t="s" s="91">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -6872,11 +6869,11 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="37"/>
       <c r="S6" t="s" s="54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T6" s="56"/>
       <c r="U6" t="s" s="54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V6" s="55"/>
       <c r="W6" s="55"/>
@@ -6911,11 +6908,11 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="29"/>
       <c r="S7" t="s" s="54">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T7" s="56"/>
       <c r="U7" t="s" s="54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
@@ -6970,7 +6967,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" t="s" s="90">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -7977,7 +7974,7 @@
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" t="s" s="90">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -8015,13 +8012,13 @@
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
       <c r="C8" t="s" s="90">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" t="s" s="90">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -8054,13 +8051,13 @@
       <c r="A9" s="13"/>
       <c r="B9" s="11"/>
       <c r="C9" t="s" s="90">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" t="s" s="90">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
